--- a/QuanLyNhaHang/doanh-thu/DoanhThuNgay.xlsx
+++ b/QuanLyNhaHang/doanh-thu/DoanhThuNgay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>Mã Hóa Đơn</t>
   </si>
@@ -32,73 +32,64 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2021-08-16 00:00:00.0</t>
+  </si>
+  <si>
+    <t>NV01</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2021-08-13 00:00:00.0</t>
-  </si>
-  <si>
-    <t>NV002</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1060000.0</t>
+    <t>150000.0</t>
   </si>
   <si>
     <t>Đã thanh toán</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>1134000.0</t>
+    <t>340000.0</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>490000.0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>300000.0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>190000.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>1613000.0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1950000.0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>870000.0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>NV001</t>
-  </si>
-  <si>
-    <t>190000.0</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>NV01</t>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -173,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -230,10 +221,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s" s="1">
         <v>11</v>
@@ -241,7 +232,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="1">
         <v>7</v>
@@ -250,10 +241,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s" s="1">
         <v>11</v>
@@ -261,19 +252,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="1">
         <v>15</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="1">
-        <v>17</v>
       </c>
       <c r="F5" t="s" s="1">
         <v>11</v>
@@ -281,19 +272,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="1">
         <v>18</v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s" s="1">
-        <v>20</v>
       </c>
       <c r="F6" t="s" s="1">
         <v>11</v>
@@ -301,7 +292,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="1">
         <v>7</v>
@@ -310,10 +301,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s" s="1">
         <v>11</v>
@@ -321,7 +312,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s" s="1">
         <v>7</v>
@@ -330,10 +321,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="1">
         <v>18</v>
-      </c>
-      <c r="E8" t="s" s="1">
-        <v>22</v>
       </c>
       <c r="F8" t="s" s="1">
         <v>11</v>
@@ -341,19 +332,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="1">
         <v>7</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s" s="1">
         <v>6</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s" s="1">
         <v>11</v>
@@ -361,21 +352,61 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s" s="1">
         <v>7</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="E10" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s" s="1">
+      <c r="E12" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s" s="1">
         <v>11</v>
       </c>
     </row>
